--- a/synuclein_inclusion_biogenesis_2024/image_analysis/FRAP/data.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/FRAP/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj1205\Documents\code\Kara-Lab\synuclein_inclusion_biogenesis_2024\image_analysis\FRAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3B016-851A-4CDE-B9E7-B6AFC3805D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0428224-8DA5-43E4-9B75-3C961235509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C26" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,281 +373,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>51.346153846153797</v>
-      </c>
-      <c r="B2">
-        <v>11.842293906809999</v>
-      </c>
-      <c r="C2">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>51.427197802197803</v>
-      </c>
-      <c r="B3">
-        <v>11.876344086021501</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>51.729395604395599</v>
-      </c>
-      <c r="B4">
-        <v>12.0555555555556</v>
-      </c>
-      <c r="C4">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>56.2046703296703</v>
-      </c>
-      <c r="B5">
-        <v>12.0071684587814</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>57.743131868131897</v>
-      </c>
-      <c r="B6">
-        <v>11.6881720430108</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>34.074175824175803</v>
-      </c>
-      <c r="B7">
-        <v>11.5609318996416</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>44.2376373626374</v>
-      </c>
-      <c r="B8">
-        <v>11.3010752688172</v>
-      </c>
-      <c r="C8">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>46.663461538461497</v>
-      </c>
-      <c r="B9">
-        <v>11.3136200716846</v>
-      </c>
-      <c r="C9">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>48.675824175824197</v>
-      </c>
-      <c r="B10">
-        <v>11.3512544802867</v>
-      </c>
-      <c r="C10">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>47.560439560439598</v>
-      </c>
-      <c r="B11">
-        <v>11.336917562724</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>47.875</v>
-      </c>
-      <c r="B12">
-        <v>11.116487455197101</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>52.115384615384599</v>
-      </c>
-      <c r="B13">
-        <v>11.089605734767</v>
-      </c>
-      <c r="C13">
-        <v>1.6528925619834701E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>53.868131868131897</v>
-      </c>
-      <c r="B14">
-        <v>10.935483870967699</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>55.276098901098898</v>
-      </c>
-      <c r="B15">
-        <v>10.842293906809999</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>57.035714285714299</v>
-      </c>
-      <c r="B16">
-        <v>10.655913978494601</v>
-      </c>
-      <c r="C16">
-        <v>1.6528925619834701E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>57.5</v>
-      </c>
-      <c r="B17">
-        <v>10.844086021505399</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>57.127747252747298</v>
-      </c>
-      <c r="B18">
-        <v>10.8172043010753</v>
-      </c>
-      <c r="C18">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>55.892857142857103</v>
-      </c>
-      <c r="B19">
-        <v>10.749103942652299</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>55.211538461538503</v>
-      </c>
-      <c r="B20">
-        <v>10.7401433691756</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>56.278846153846203</v>
-      </c>
-      <c r="B21">
-        <v>10.747311827957001</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>55.979395604395599</v>
-      </c>
-      <c r="B22">
-        <v>10.528673835125399</v>
-      </c>
-      <c r="C22">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>55.528846153846203</v>
-      </c>
-      <c r="B23">
-        <v>10.634408602150501</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>57.390109890109898</v>
-      </c>
-      <c r="B24">
-        <v>10.6075268817204</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>57.429945054945101</v>
-      </c>
-      <c r="B25">
-        <v>10.7025089605735</v>
-      </c>
-      <c r="C25">
-        <v>8.2644628099173608E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>56.9546703296703</v>
-      </c>
-      <c r="B26">
-        <v>10.605734767025099</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/FRAP/data.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/FRAP/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj1205\Documents\code\Kara-Lab\synuclein_inclusion_biogenesis_2024\image_analysis\FRAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0428224-8DA5-43E4-9B75-3C961235509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39775C47-788F-4236-B159-7F86FAE16699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="A2:C26"/>
+      <selection activeCell="C16" sqref="A2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
